--- a/MyFilter/outputs/output_cci_100.xlsx
+++ b/MyFilter/outputs/output_cci_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Changed</t>
         </is>
       </c>
@@ -475,27 +480,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1617667200</v>
+        <v>1617766620</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>APS</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1878866</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>234.75</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3069544364506</v>
+        <v>238.0952380952379</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04807692307692313</v>
+        <v>17800</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05325443786982254</v>
       </c>
     </row>
     <row r="3">
@@ -507,23 +515,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>APS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6217282</v>
+        <v>1878866</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>1586</v>
       </c>
       <c r="F3" t="n">
-        <v>416.5</v>
+        <v>234.75</v>
       </c>
       <c r="G3" t="n">
-        <v>144.9513632004384</v>
+        <v>176.3069544364506</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09345794392523366</v>
+        <v>10900</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04807692307692313</v>
       </c>
     </row>
     <row r="4">
@@ -531,27 +542,30 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1617667200</v>
+        <v>1617777600</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>BVB</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2362700</v>
+        <v>52400</v>
       </c>
       <c r="E4" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>924.75</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>87.27655099894858</v>
+        <v>168.5882654368436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0145631067961165</v>
+        <v>14800</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01369863013698636</v>
       </c>
     </row>
     <row r="5">
@@ -559,27 +573,30 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1617667200</v>
+        <v>1617608700</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>BVS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8943300</v>
+        <v>52000</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>1836</v>
       </c>
       <c r="F5" t="n">
-        <v>1235.75</v>
+        <v>1595.25</v>
       </c>
       <c r="G5" t="n">
-        <v>176.5458422174842</v>
+        <v>123.2632249840661</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02366863905325434</v>
+        <v>24700</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01646090534979416</v>
       </c>
     </row>
     <row r="6">
@@ -587,27 +604,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1617667200</v>
+        <v>1617778560</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8058100</v>
+        <v>400</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>2120</v>
       </c>
       <c r="F6" t="n">
-        <v>-1259.5</v>
+        <v>2080.75</v>
       </c>
       <c r="G6" t="n">
-        <v>108.5271317829458</v>
+        <v>72.49397245719433</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03064066852367686</v>
+        <v>29400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01204819277108427</v>
       </c>
     </row>
     <row r="7">
@@ -615,27 +635,30 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1617667200</v>
+        <v>1617778680</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>EVF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2654397</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>392.25</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.0717703349281</v>
+        <v>123.7524950099802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08823529411764697</v>
+        <v>12200</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01666666666666661</v>
       </c>
     </row>
     <row r="8">
@@ -643,27 +666,30 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1617667200</v>
+        <v>1617778440</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>GEG</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>965100</v>
+        <v>1000</v>
       </c>
       <c r="E8" t="n">
-        <v>1500</v>
+        <v>1193</v>
       </c>
       <c r="F8" t="n">
-        <v>369.75</v>
+        <v>1233.25</v>
       </c>
       <c r="G8" t="n">
-        <v>115.4674277702662</v>
+        <v>117.7502851627623</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01242236024844723</v>
+        <v>19400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02105263157894743</v>
       </c>
     </row>
     <row r="9">
@@ -671,27 +697,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1617667200</v>
+        <v>1617769320</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>GIL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>779395</v>
+        <v>5000</v>
       </c>
       <c r="E9" t="n">
-        <v>2443</v>
+        <v>10211</v>
       </c>
       <c r="F9" t="n">
-        <v>1937</v>
+        <v>9023</v>
       </c>
       <c r="G9" t="n">
-        <v>151.8858307849131</v>
+        <v>97.92401096748956</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02061855670103085</v>
+        <v>73300</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01103448275862062</v>
       </c>
     </row>
     <row r="10">
@@ -699,27 +728,30 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1617667200</v>
+        <v>1617778500</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5700821</v>
+        <v>50000</v>
       </c>
       <c r="E10" t="n">
-        <v>-161</v>
+        <v>1227</v>
       </c>
       <c r="F10" t="n">
-        <v>-113.25</v>
+        <v>1425.75</v>
       </c>
       <c r="G10" t="n">
-        <v>152.777777777778</v>
+        <v>180.6865700671011</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1000000000000001</v>
+        <v>35800</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04069767441860472</v>
       </c>
     </row>
     <row r="11">
@@ -727,27 +759,588 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1617667200</v>
+        <v>1617778500</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>HAG</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>779800</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="n">
+        <v>-1531</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-198.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>125.7068993375344</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5740</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01413427561837466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1617778440</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HHS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1061</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1111.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>127.2599328786401</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7760</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01437908496732021</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1617778620</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HUT</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-149.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>159.3090211132433</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7200</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02857142857142847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1617778680</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>171</v>
+      </c>
+      <c r="F14" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>167.3758865248226</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7380</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02357836338418862</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1617778680</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KLF</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>108</v>
+      </c>
+      <c r="F15" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>126.6456029489205</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07317073170731714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1617778620</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LIG</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>319</v>
+      </c>
+      <c r="F16" t="n">
+        <v>638.25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>190.3270702853164</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9200</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02222222222222214</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1617778620</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>601</v>
+      </c>
+      <c r="F17" t="n">
+        <v>854.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>262.1082621082624</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9300</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.08139534883720922</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1617778560</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MBS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1736</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1634.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>196.1172523785951</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04761904761904767</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1617778080</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2579.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>141.9429064499892</v>
+      </c>
+      <c r="H19" t="n">
+        <v>93800</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02067464635473337</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1617778500</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MST</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>690</v>
+      </c>
+      <c r="F20" t="n">
+        <v>435.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>124.198250728863</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12300</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02499999999999991</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1617778200</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NKG</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1669</v>
+      </c>
+      <c r="F21" t="n">
+        <v>984.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>118.9809257036145</v>
+      </c>
+      <c r="H21" t="n">
+        <v>24200</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02109704641350207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1617778560</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PDR</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>37300</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3418</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3090.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>225.3823122717134</v>
+      </c>
+      <c r="H22" t="n">
+        <v>68500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01032448377581119</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1617777960</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7733</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8177</v>
+      </c>
+      <c r="G23" t="n">
+        <v>120.5812188245496</v>
+      </c>
+      <c r="H23" t="n">
+        <v>86500</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03221957040572798</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1617778560</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SBS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>400</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>152.2329138909452</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8700</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0235294117647058</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1617778380</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SKG</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>329</v>
+      </c>
+      <c r="F25" t="n">
+        <v>709.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>136.0251530696678</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14200</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.04411764705882359</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1617778500</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2179</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1877</v>
+      </c>
+      <c r="G26" t="n">
+        <v>143.2358012300882</v>
+      </c>
+      <c r="H26" t="n">
+        <v>35350</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1617778620</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>500</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3167</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3640</v>
+      </c>
+      <c r="G27" t="n">
+        <v>282.6762246117079</v>
+      </c>
+      <c r="H27" t="n">
+        <v>31700</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03257328990228014</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="F11" t="n">
-        <v>143</v>
-      </c>
-      <c r="G11" t="n">
-        <v>121.9999604281674</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01809954751131215</v>
+      <c r="B28" t="n">
+        <v>1617777480</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TLH</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>756</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1136.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>136.2916069599676</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12250</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.06060606060606055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1617776580</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>VGC</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1322</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1389.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>118.5077820340263</v>
+      </c>
+      <c r="H29" t="n">
+        <v>36000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02857142857142847</v>
       </c>
     </row>
   </sheetData>
